--- a/Output/oto/Dang ki the oto_lock.xlsx
+++ b/Output/oto/Dang ki the oto_lock.xlsx
@@ -675,12 +675,12 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>No.0002T</t>
+          <t>No.0021</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>0012969277</t>
+          <t>0012967864</t>
         </is>
       </c>
       <c r="D7" s="9" t="n">
@@ -693,12 +693,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>No.0007T</t>
+          <t>No.0023</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>0012999805</t>
+          <t>0012999773</t>
         </is>
       </c>
       <c r="D8" s="9" t="n">
@@ -711,12 +711,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>No.0008T</t>
+          <t>No.0024</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>0012999810</t>
+          <t>0013000191</t>
         </is>
       </c>
       <c r="D9" s="9" t="n">
@@ -729,12 +729,12 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>No.0011T</t>
+          <t>No.0026</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>0012967910</t>
+          <t>0012999775</t>
         </is>
       </c>
       <c r="D10" s="9" t="n">
@@ -747,12 +747,12 @@
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>No.0013T</t>
+          <t>No.0027</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>0012967793</t>
+          <t>0012999776</t>
         </is>
       </c>
       <c r="D11" s="9" t="n">
@@ -765,12 +765,12 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>No.0014T</t>
+          <t>No.0028</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>0012999741</t>
+          <t>0013000188</t>
         </is>
       </c>
       <c r="D12" s="9" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>No.0016T</t>
+          <t>No.0029</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>0013000219</t>
+          <t>0013000157</t>
         </is>
       </c>
       <c r="D13" s="9" t="n">
@@ -801,12 +801,12 @@
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>No.0017T</t>
+          <t>No.0030</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>0002854018</t>
+          <t>0012969215</t>
         </is>
       </c>
       <c r="D14" s="9" t="n">
@@ -819,12 +819,12 @@
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>No.0018T</t>
+          <t>No.0031</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>0012969309</t>
+          <t>0012969246</t>
         </is>
       </c>
       <c r="D15" s="9" t="n">
@@ -837,12 +837,12 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>No.0019T</t>
+          <t>No.0032</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>0012967940</t>
+          <t>0012967941</t>
         </is>
       </c>
       <c r="D16" s="9" t="n">
@@ -855,12 +855,12 @@
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>No.0021</t>
+          <t>No.0033</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>0012967864</t>
+          <t>0012999557</t>
         </is>
       </c>
       <c r="D17" s="9" t="n">
@@ -873,12 +873,12 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>No.0023</t>
+          <t>No.0034</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>0012999773</t>
+          <t>0012999744</t>
         </is>
       </c>
       <c r="D18" s="9" t="n">
@@ -891,12 +891,12 @@
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>No.0024</t>
+          <t>No.0036</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>0013000191</t>
+          <t>0013000189</t>
         </is>
       </c>
       <c r="D19" s="9" t="n">
@@ -909,12 +909,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>No.0026</t>
+          <t>No.0039</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>0012999775</t>
+          <t>0012969247</t>
         </is>
       </c>
       <c r="D20" s="9" t="n">
@@ -927,16 +927,21 @@
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>No.0027</t>
+          <t>No.0041</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>0012999776</t>
+          <t>0002822250</t>
         </is>
       </c>
       <c r="D21" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -945,16 +950,21 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>No.0028</t>
+          <t>No.0042</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>0013000188</t>
+          <t>0002821986</t>
         </is>
       </c>
       <c r="D22" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -963,16 +973,21 @@
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>No.0029</t>
+          <t>No.0043</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>0013000157</t>
+          <t>0002821693</t>
         </is>
       </c>
       <c r="D23" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -981,16 +996,21 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>No.0030</t>
+          <t>No.0045</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>0012969215</t>
+          <t>0002845386</t>
         </is>
       </c>
       <c r="D24" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -999,16 +1019,21 @@
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>No.0031</t>
+          <t>No.0046</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>0012969246</t>
+          <t>0002845689</t>
         </is>
       </c>
       <c r="D25" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1017,16 +1042,21 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>No.0032</t>
+          <t>No.0047</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>0012967941</t>
+          <t>0002845992</t>
         </is>
       </c>
       <c r="D26" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1035,16 +1065,21 @@
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>No.0033</t>
+          <t>No.0048</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>0012999557</t>
+          <t>0002846294</t>
         </is>
       </c>
       <c r="D27" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1053,16 +1088,21 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>No.0034</t>
+          <t>No.0049</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>0012999744</t>
+          <t>0002786594</t>
         </is>
       </c>
       <c r="D28" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1071,16 +1111,21 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>No.0036</t>
+          <t>No.0050</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>0013000189</t>
+          <t>0002786659</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1089,12 +1134,12 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>No.0039</t>
+          <t>No.0051</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>0012969247</t>
+          <t>0012567896</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
@@ -1107,21 +1152,16 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>No.0041</t>
+          <t>No.0053</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>0002822250</t>
+          <t>0012571687</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1130,12 +1170,12 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>No.0041T</t>
+          <t>No.0054</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>0012999556</t>
+          <t>0012571668</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
@@ -1148,21 +1188,16 @@
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>No.0042</t>
+          <t>No.0055</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>0002821986</t>
+          <t>0012571654</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1171,12 +1206,12 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>No.0042T</t>
+          <t>No.0056</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>0012999743</t>
+          <t>0012571450</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -1189,21 +1224,16 @@
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>No.0043</t>
+          <t>No.0057</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>0002821693</t>
+          <t>0012567970</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1212,12 +1242,12 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>No.0043T</t>
+          <t>No.0058</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>0012999808</t>
+          <t>0012567974</t>
         </is>
       </c>
       <c r="D36" s="9" t="n">
@@ -1230,12 +1260,12 @@
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>No.0044T</t>
+          <t>No.0060</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>0013000221</t>
+          <t>0012568007</t>
         </is>
       </c>
       <c r="D37" s="9" t="n">
@@ -1248,21 +1278,16 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>No.0045</t>
+          <t>No.0061</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>0002845386</t>
+          <t>0012567883</t>
         </is>
       </c>
       <c r="D38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1271,21 +1296,16 @@
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>No.0046</t>
+          <t>No.0063</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
         <is>
-          <t>0002845689</t>
+          <t>0012571483</t>
         </is>
       </c>
       <c r="D39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1294,12 +1314,12 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>No.0046T</t>
+          <t>No.0066</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>0013000092</t>
+          <t>0012567936</t>
         </is>
       </c>
       <c r="D40" s="9" t="n">
@@ -1312,21 +1332,16 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>No.0047</t>
+          <t>No.0067</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t>0002845992</t>
+          <t>0012567907</t>
         </is>
       </c>
       <c r="D41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1335,21 +1350,16 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>No.0048</t>
+          <t>No.0068</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>0002846294</t>
+          <t>0012567904</t>
         </is>
       </c>
       <c r="D42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1358,21 +1368,16 @@
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>No.0049</t>
+          <t>No.0069</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
         <is>
-          <t>0002786594</t>
+          <t>0012571708</t>
         </is>
       </c>
       <c r="D43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1381,12 +1386,12 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>No.0049T</t>
+          <t>No.0070</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>0012567928</t>
+          <t>0012571679</t>
         </is>
       </c>
       <c r="D44" s="9" t="n">
@@ -1399,21 +1404,16 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>No.0050</t>
+          <t>No.0071</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>0002786659</t>
+          <t>0012571676</t>
         </is>
       </c>
       <c r="D45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>No.0050T</t>
+          <t>No.0072</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>0012567915</t>
+          <t>0012571670</t>
         </is>
       </c>
       <c r="D46" s="9" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>No.0051</t>
+          <t>No.0073</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>0012567896</t>
+          <t>0012571690</t>
         </is>
       </c>
       <c r="D47" s="9" t="n">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>No.0053</t>
+          <t>No.0080</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>0012571687</t>
+          <t>0012571493</t>
         </is>
       </c>
       <c r="D48" s="9" t="n">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>No.0054</t>
+          <t>No.0082</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
         <is>
-          <t>0012571668</t>
+          <t>0012567918</t>
         </is>
       </c>
       <c r="D49" s="9" t="n">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>No.0055</t>
+          <t>No.0084</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>0012571654</t>
+          <t>0012567951</t>
         </is>
       </c>
       <c r="D50" s="9" t="n">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>No.0056</t>
+          <t>No.0086</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>0012571450</t>
+          <t>0012567985</t>
         </is>
       </c>
       <c r="D51" s="9" t="n">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>No.0057</t>
+          <t>No.0088</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>0012567970</t>
+          <t>0012568018</t>
         </is>
       </c>
       <c r="D52" s="9" t="n">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>No.0058</t>
+          <t>No.0089</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
         <is>
-          <t>0012567974</t>
+          <t>0012567034</t>
         </is>
       </c>
       <c r="D53" s="9" t="n">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>No.0060</t>
+          <t>No.0092</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>0012568007</t>
+          <t>0012567076</t>
         </is>
       </c>
       <c r="D54" s="9" t="n">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>No.0061</t>
+          <t>No.0095</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>0012567883</t>
+          <t>0012567131</t>
         </is>
       </c>
       <c r="D55" s="9" t="n">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>No.0063</t>
+          <t>No.0096</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>0012571483</t>
+          <t>0012567140</t>
         </is>
       </c>
       <c r="D56" s="9" t="n">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>No.0066</t>
+          <t>No.0097</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>0012567936</t>
+          <t>0012571824</t>
         </is>
       </c>
       <c r="D57" s="9" t="n">
@@ -1638,12 +1638,12 @@
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>No.0067</t>
+          <t>No.0099</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>0012567907</t>
+          <t>0012571722</t>
         </is>
       </c>
       <c r="D58" s="9" t="n">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>No.0068</t>
+          <t>No.0102</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>0012567904</t>
+          <t>0012567986</t>
         </is>
       </c>
       <c r="D59" s="9" t="n">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>No.0069</t>
+          <t>No.0104</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>0012571708</t>
+          <t>0012571696</t>
         </is>
       </c>
       <c r="D60" s="9" t="n">
@@ -1692,12 +1692,12 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>No.0070</t>
+          <t>No.0107</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>0012571679</t>
+          <t>0012567035</t>
         </is>
       </c>
       <c r="D61" s="9" t="n">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>No.0071</t>
+          <t>No.0108</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>0012571676</t>
+          <t>0012567075</t>
         </is>
       </c>
       <c r="D62" s="9" t="n">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>No.0072</t>
+          <t>No.0109</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>0012571670</t>
+          <t>0012567132</t>
         </is>
       </c>
       <c r="D63" s="9" t="n">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>No.0073</t>
+          <t>No.0111</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>0012571690</t>
+          <t>0012567924</t>
         </is>
       </c>
       <c r="D64" s="9" t="n">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>No.0080</t>
+          <t>No.0113</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>0012571493</t>
+          <t>0012571792</t>
         </is>
       </c>
       <c r="D65" s="9" t="n">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>No.0082</t>
+          <t>No.0117</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>0012567918</t>
+          <t>0012567139</t>
         </is>
       </c>
       <c r="D66" s="9" t="n">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>No.0084</t>
+          <t>No.0119</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>0012567951</t>
+          <t>0012567952</t>
         </is>
       </c>
       <c r="D67" s="9" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>No.0086</t>
+          <t>No.0120</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>0012567985</t>
+          <t>0012567919</t>
         </is>
       </c>
       <c r="D68" s="9" t="n">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>No.0088</t>
+          <t>No.0121</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>0012568018</t>
+          <t>0012567061</t>
         </is>
       </c>
       <c r="D69" s="9" t="n">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>No.0089</t>
+          <t>No.0125</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>0012567034</t>
+          <t>0012567913</t>
         </is>
       </c>
       <c r="D70" s="9" t="n">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>No.0092</t>
+          <t>No.0126</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>0012567076</t>
+          <t>0012567898</t>
         </is>
       </c>
       <c r="D71" s="9" t="n">
@@ -1890,12 +1890,12 @@
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>No.0095</t>
+          <t>No.0128</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>0012567131</t>
+          <t>0012567028</t>
         </is>
       </c>
       <c r="D72" s="9" t="n">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>No.0096</t>
+          <t>No.0129</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>0012567140</t>
+          <t>0012567048</t>
         </is>
       </c>
       <c r="D73" s="9" t="n">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>No.0097</t>
+          <t>No.0131</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>0012571824</t>
+          <t>0012567145</t>
         </is>
       </c>
       <c r="D74" s="9" t="n">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>No.0099</t>
+          <t>No.0134</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>0012571722</t>
+          <t>0012571702</t>
         </is>
       </c>
       <c r="D75" s="9" t="n">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>No.0102</t>
+          <t>No.0136</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>0012567986</t>
+          <t>0012567049</t>
         </is>
       </c>
       <c r="D76" s="9" t="n">
@@ -1980,12 +1980,12 @@
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>No.0104</t>
+          <t>No.0137</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>0012571696</t>
+          <t>0012567029</t>
         </is>
       </c>
       <c r="D77" s="9" t="n">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>No.0107</t>
+          <t>No.0139</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>0012567035</t>
+          <t>0012567126</t>
         </is>
       </c>
       <c r="D78" s="9" t="n">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>No.0108</t>
+          <t>No.0143</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>0012567075</t>
+          <t>0012571753</t>
         </is>
       </c>
       <c r="D79" s="9" t="n">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>No.0109</t>
+          <t>No.0145</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>0012567132</t>
+          <t>0012977145</t>
         </is>
       </c>
       <c r="D80" s="9" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>No.0111</t>
+          <t>No.0146</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>0012567924</t>
+          <t>0012977124</t>
         </is>
       </c>
       <c r="D81" s="9" t="n">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>No.0113</t>
+          <t>No.0149</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>0012571792</t>
+          <t>0012977091</t>
         </is>
       </c>
       <c r="D82" s="9" t="n">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>No.0117</t>
+          <t>No.0150</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
         <is>
-          <t>0012567139</t>
+          <t>0012977080</t>
         </is>
       </c>
       <c r="D83" s="9" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>No.0119</t>
+          <t>No.0152</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>0012567952</t>
+          <t>0012977048</t>
         </is>
       </c>
       <c r="D84" s="9" t="n">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>No.0120</t>
+          <t>No.0154</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>0012567919</t>
+          <t>0012975615</t>
         </is>
       </c>
       <c r="D85" s="9" t="n">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>No.0121</t>
+          <t>No.0155</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>0012567061</t>
+          <t>0012975612</t>
         </is>
       </c>
       <c r="D86" s="9" t="n">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>No.0125</t>
+          <t>No.0156</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>0012567913</t>
+          <t>0012975583</t>
         </is>
       </c>
       <c r="D87" s="9" t="n">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>No.0126</t>
+          <t>No.0159</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>0012567898</t>
+          <t>0012975548</t>
         </is>
       </c>
       <c r="D88" s="9" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>No.0128</t>
+          <t>No.0164</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>0012567028</t>
+          <t>0012976219</t>
         </is>
       </c>
       <c r="D89" s="9" t="n">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>No.0129</t>
+          <t>No.0165</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>0012567048</t>
+          <t>0012976190</t>
         </is>
       </c>
       <c r="D90" s="9" t="n">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>No.0131</t>
+          <t>No.0166</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>0012567145</t>
+          <t>0012976187</t>
         </is>
       </c>
       <c r="D91" s="9" t="n">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>No.0134</t>
+          <t>No.0167</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>0012571702</t>
+          <t>0012976155</t>
         </is>
       </c>
       <c r="D92" s="9" t="n">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>No.0136</t>
+          <t>No.0169</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>0012567049</t>
+          <t>0008124820</t>
         </is>
       </c>
       <c r="D93" s="9" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>No.0137</t>
+          <t>No.0170</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>0012567029</t>
+          <t>0008124831</t>
         </is>
       </c>
       <c r="D94" s="9" t="n">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>No.0139</t>
+          <t>No.0171</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>0012567126</t>
+          <t>0008124852</t>
         </is>
       </c>
       <c r="D95" s="9" t="n">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>No.0143</t>
+          <t>No.0174</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>0012571753</t>
+          <t>0008123878</t>
         </is>
       </c>
       <c r="D96" s="9" t="n">
@@ -2340,12 +2340,12 @@
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>No.0145</t>
+          <t>No.0175</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>0012977145</t>
+          <t>0008123899</t>
         </is>
       </c>
       <c r="D97" s="9" t="n">
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>No.0146</t>
+          <t>No.0176</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>0012977124</t>
+          <t>0008123910</t>
         </is>
       </c>
       <c r="D98" s="9" t="n">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>No.0149</t>
+          <t>No.0178</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>0012977091</t>
+          <t>0008161709</t>
         </is>
       </c>
       <c r="D99" s="9" t="n">
@@ -2394,12 +2394,12 @@
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>No.0150</t>
+          <t>No.0179</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>0012977080</t>
+          <t>0008169853</t>
         </is>
       </c>
       <c r="D100" s="9" t="n">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>No.0152</t>
+          <t>No.0311</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
         <is>
-          <t>0012977048</t>
+          <t>0013846071</t>
         </is>
       </c>
       <c r="D101" s="9" t="n">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>No.0154</t>
+          <t>No.1060</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>0012975615</t>
+          <t>0009483400</t>
         </is>
       </c>
       <c r="D102" s="9" t="n">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>No.0155</t>
+          <t>No.1093</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
         <is>
-          <t>0012975612</t>
+          <t>0012844134</t>
         </is>
       </c>
       <c r="D103" s="9" t="n">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>No.0156</t>
+          <t>No.1483</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>0012975583</t>
+          <t>0012976202</t>
         </is>
       </c>
       <c r="D104" s="9" t="n">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>No.0159</t>
+          <t>No.1522</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>0012975548</t>
+          <t>0011978359</t>
         </is>
       </c>
       <c r="D105" s="9" t="n">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>No.0164</t>
+          <t>No.1688</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>0012976219</t>
+          <t>0012883843</t>
         </is>
       </c>
       <c r="D106" s="9" t="n">
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>No.0165</t>
+          <t>No.1826</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>0012976190</t>
+          <t>0011771157</t>
         </is>
       </c>
       <c r="D107" s="9" t="n">
@@ -2538,12 +2538,12 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>No.0166</t>
+          <t>No.1829</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>0012976187</t>
+          <t>0012796914</t>
         </is>
       </c>
       <c r="D108" s="9" t="n">
@@ -2556,12 +2556,12 @@
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>No.0167</t>
+          <t>No.2085</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
         <is>
-          <t>0012976155</t>
+          <t>0012571484</t>
         </is>
       </c>
       <c r="D109" s="9" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>No.0169</t>
+          <t>No.2153</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
         <is>
-          <t>0008124820</t>
+          <t>0011372646</t>
         </is>
       </c>
       <c r="D110" s="9" t="n">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>No.0170</t>
+          <t>No.2167</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>0008124831</t>
+          <t>0012308077</t>
         </is>
       </c>
       <c r="D111" s="9" t="n">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>No.0171</t>
+          <t>No.2178</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>0008124852</t>
+          <t>0012308010</t>
         </is>
       </c>
       <c r="D112" s="9" t="n">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>No.0174</t>
+          <t>No.2179</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
         <is>
-          <t>0008123878</t>
+          <t>0012308013</t>
         </is>
       </c>
       <c r="D113" s="9" t="n">
@@ -2646,12 +2646,12 @@
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>No.0175</t>
+          <t>No.2200</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>0008123899</t>
+          <t>0012307767</t>
         </is>
       </c>
       <c r="D114" s="9" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="B115" s="9" t="inlineStr">
         <is>
-          <t>No.0176</t>
+          <t>No.2201</t>
         </is>
       </c>
       <c r="C115" s="9" t="inlineStr">
         <is>
-          <t>0008123910</t>
+          <t>0012307788</t>
         </is>
       </c>
       <c r="D115" s="9" t="n">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>No.0178</t>
+          <t>No.2247</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>0008161709</t>
+          <t>0012307791</t>
         </is>
       </c>
       <c r="D116" s="9" t="n">
@@ -2700,12 +2700,12 @@
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>No.0179</t>
+          <t>No.2269</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
         <is>
-          <t>0008169853</t>
+          <t>0012677761</t>
         </is>
       </c>
       <c r="D117" s="9" t="n">
@@ -2718,21 +2718,16 @@
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>No.00183</t>
+          <t>No.2281</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>0012298875</t>
+          <t>0011432503</t>
         </is>
       </c>
       <c r="D118" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2741,21 +2736,16 @@
       </c>
       <c r="B119" s="9" t="inlineStr">
         <is>
-          <t>No.00185</t>
+          <t>No.2281</t>
         </is>
       </c>
       <c r="C119" s="9" t="inlineStr">
         <is>
-          <t>0012298843</t>
+          <t>0012576549</t>
         </is>
       </c>
       <c r="D119" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2764,21 +2754,16 @@
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>No.00186</t>
+          <t>No.2334</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>0012298820</t>
+          <t>0012969259</t>
         </is>
       </c>
       <c r="D120" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2787,21 +2772,16 @@
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>No.00188</t>
+          <t>No.2367</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
         <is>
-          <t>0012298000</t>
+          <t>0013682126</t>
         </is>
       </c>
       <c r="D121" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2810,21 +2790,16 @@
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>No.00189</t>
+          <t>No.2378</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
         <is>
-          <t>0012310453</t>
+          <t>0013678598</t>
         </is>
       </c>
       <c r="D122" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -2833,21 +2808,16 @@
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>No.00191</t>
+          <t>No.2382</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>0012297904</t>
+          <t>0012999793</t>
         </is>
       </c>
       <c r="D123" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2856,21 +2826,16 @@
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>No.00192</t>
+          <t>No.2385</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>0012297913</t>
+          <t>0012969225</t>
         </is>
       </c>
       <c r="D124" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -2879,21 +2844,16 @@
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>No.00193</t>
+          <t>No.2386</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
         <is>
-          <t>0012297936</t>
+          <t>0012969236</t>
         </is>
       </c>
       <c r="D125" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -2902,21 +2862,16 @@
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>No.00194</t>
+          <t>No.2393</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>0012297945</t>
+          <t>0012967931</t>
         </is>
       </c>
       <c r="D126" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2925,21 +2880,16 @@
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>No.00196</t>
+          <t>No.2397</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
         <is>
-          <t>0012297977</t>
+          <t>0012967802</t>
         </is>
       </c>
       <c r="D127" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2948,21 +2898,16 @@
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>No.00197</t>
+          <t>No.2406</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>0012310430</t>
+          <t>0009606185</t>
         </is>
       </c>
       <c r="D128" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2971,21 +2916,16 @@
       </c>
       <c r="B129" s="9" t="inlineStr">
         <is>
-          <t>No.00198</t>
+          <t>No.2723</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
         <is>
-          <t>0012310421</t>
+          <t>0002835808</t>
         </is>
       </c>
       <c r="D129" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2994,21 +2934,16 @@
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>No.00199</t>
+          <t>No.2735</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>0012310397</t>
+          <t>0008222617</t>
         </is>
       </c>
       <c r="D130" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3017,21 +2952,16 @@
       </c>
       <c r="B131" s="9" t="inlineStr">
         <is>
-          <t>No.00200</t>
+          <t>No.2797</t>
         </is>
       </c>
       <c r="C131" s="9" t="inlineStr">
         <is>
-          <t>0012310388</t>
+          <t>0008456800</t>
         </is>
       </c>
       <c r="D131" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3040,21 +2970,16 @@
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>No.00201</t>
+          <t>No.2798</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>0012310365</t>
+          <t>0008456799</t>
         </is>
       </c>
       <c r="D132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3063,21 +2988,16 @@
       </c>
       <c r="B133" s="9" t="inlineStr">
         <is>
-          <t>No.00203</t>
+          <t>No.2838</t>
         </is>
       </c>
       <c r="C133" s="9" t="inlineStr">
         <is>
-          <t>0012310333</t>
+          <t>0002856412</t>
         </is>
       </c>
       <c r="D133" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3086,12 +3006,12 @@
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>No.0311</t>
+          <t>No.2839</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>0013846071</t>
+          <t>0002850271</t>
         </is>
       </c>
       <c r="D134" s="9" t="n">
@@ -3104,12 +3024,12 @@
       </c>
       <c r="B135" s="9" t="inlineStr">
         <is>
-          <t>No.0421AD</t>
+          <t>No.2854</t>
         </is>
       </c>
       <c r="C135" s="9" t="inlineStr">
         <is>
-          <t>0014109981</t>
+          <t>0002850562</t>
         </is>
       </c>
       <c r="D135" s="9" t="n">
@@ -3122,12 +3042,12 @@
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>No.1060</t>
+          <t>No.2882</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
         <is>
-          <t>0009483400</t>
+          <t>0002837431</t>
         </is>
       </c>
       <c r="D136" s="9" t="n">
@@ -3140,12 +3060,12 @@
       </c>
       <c r="B137" s="9" t="inlineStr">
         <is>
-          <t>No.1093</t>
+          <t>No.3093</t>
         </is>
       </c>
       <c r="C137" s="9" t="inlineStr">
         <is>
-          <t>0012844134</t>
+          <t>0013252244</t>
         </is>
       </c>
       <c r="D137" s="9" t="n">
@@ -3158,12 +3078,12 @@
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>No.1483</t>
+          <t>No.3238</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
         <is>
-          <t>0012976202</t>
+          <t>0013510509</t>
         </is>
       </c>
       <c r="D138" s="9" t="n">
@@ -3176,12 +3096,12 @@
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>No.1522</t>
+          <t>No.3409</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
         <is>
-          <t>0011978359</t>
+          <t>0012167351</t>
         </is>
       </c>
       <c r="D139" s="9" t="n">
@@ -3194,12 +3114,12 @@
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>No.1688</t>
+          <t>No.3492</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
         <is>
-          <t>0012883843</t>
+          <t>0013739199</t>
         </is>
       </c>
       <c r="D140" s="9" t="n">
@@ -3212,12 +3132,12 @@
       </c>
       <c r="B141" s="9" t="inlineStr">
         <is>
-          <t>No.1826</t>
+          <t>No.3578</t>
         </is>
       </c>
       <c r="C141" s="9" t="inlineStr">
         <is>
-          <t>0011771157</t>
+          <t>0012143967</t>
         </is>
       </c>
       <c r="D141" s="9" t="n">
@@ -3230,12 +3150,12 @@
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>No.1829</t>
+          <t>No.3605</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>0012796914</t>
+          <t>0012408824</t>
         </is>
       </c>
       <c r="D142" s="9" t="n">
@@ -3248,12 +3168,12 @@
       </c>
       <c r="B143" s="9" t="inlineStr">
         <is>
-          <t>No.2085</t>
+          <t>No.3639</t>
         </is>
       </c>
       <c r="C143" s="9" t="inlineStr">
         <is>
-          <t>0012571484</t>
+          <t>0012197515</t>
         </is>
       </c>
       <c r="D143" s="9" t="n">
@@ -3266,12 +3186,12 @@
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>No.2153</t>
+          <t>No.3661</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
         <is>
-          <t>0011372646</t>
+          <t>0012427235</t>
         </is>
       </c>
       <c r="D144" s="9" t="n">
@@ -3284,12 +3204,12 @@
       </c>
       <c r="B145" s="9" t="inlineStr">
         <is>
-          <t>No.2167</t>
+          <t>No.3792</t>
         </is>
       </c>
       <c r="C145" s="9" t="inlineStr">
         <is>
-          <t>0012308077</t>
+          <t>0008120294</t>
         </is>
       </c>
       <c r="D145" s="9" t="n">
@@ -3302,12 +3222,12 @@
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>No.2178</t>
+          <t>No.3840</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
         <is>
-          <t>0012308010</t>
+          <t>0008185604</t>
         </is>
       </c>
       <c r="D146" s="9" t="n">
@@ -3320,12 +3240,12 @@
       </c>
       <c r="B147" s="9" t="inlineStr">
         <is>
-          <t>No.2179</t>
+          <t>No.3880</t>
         </is>
       </c>
       <c r="C147" s="9" t="inlineStr">
         <is>
-          <t>0012308013</t>
+          <t>0008018196</t>
         </is>
       </c>
       <c r="D147" s="9" t="n">
@@ -3338,12 +3258,12 @@
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>No.2200</t>
+          <t>No.3908</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>0012307767</t>
+          <t>0007959211</t>
         </is>
       </c>
       <c r="D148" s="9" t="n">
@@ -3356,12 +3276,12 @@
       </c>
       <c r="B149" s="9" t="inlineStr">
         <is>
-          <t>No.2201</t>
+          <t>No.3917</t>
         </is>
       </c>
       <c r="C149" s="9" t="inlineStr">
         <is>
-          <t>0012307788</t>
+          <t>0008224823</t>
         </is>
       </c>
       <c r="D149" s="9" t="n">
@@ -3374,12 +3294,12 @@
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>No.2247</t>
+          <t>No.4194</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
         <is>
-          <t>0012307791</t>
+          <t>0010843040</t>
         </is>
       </c>
       <c r="D150" s="9" t="n">
@@ -3392,12 +3312,12 @@
       </c>
       <c r="B151" s="9" t="inlineStr">
         <is>
-          <t>No.2269</t>
+          <t>No.4214</t>
         </is>
       </c>
       <c r="C151" s="9" t="inlineStr">
         <is>
-          <t>0012677761</t>
+          <t>0010900768</t>
         </is>
       </c>
       <c r="D151" s="9" t="n">
@@ -3410,12 +3330,12 @@
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>No.2281</t>
+          <t>No.4215</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
         <is>
-          <t>0011432503</t>
+          <t>0010900771</t>
         </is>
       </c>
       <c r="D152" s="9" t="n">
@@ -3428,12 +3348,12 @@
       </c>
       <c r="B153" s="9" t="inlineStr">
         <is>
-          <t>No.2281</t>
+          <t>No.4301</t>
         </is>
       </c>
       <c r="C153" s="9" t="inlineStr">
         <is>
-          <t>0012576549</t>
+          <t>0010864791</t>
         </is>
       </c>
       <c r="D153" s="9" t="n">
@@ -3446,12 +3366,12 @@
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>No.2334</t>
+          <t>No.4316</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
         <is>
-          <t>0012969259</t>
+          <t>0003787975</t>
         </is>
       </c>
       <c r="D154" s="9" t="n">
@@ -3464,12 +3384,12 @@
       </c>
       <c r="B155" s="9" t="inlineStr">
         <is>
-          <t>No.2367</t>
+          <t>No.4331</t>
         </is>
       </c>
       <c r="C155" s="9" t="inlineStr">
         <is>
-          <t>0013682126</t>
+          <t>0010869833</t>
         </is>
       </c>
       <c r="D155" s="9" t="n">
@@ -3482,12 +3402,12 @@
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>No.2377AD</t>
+          <t>No.4335</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
         <is>
-          <t>0000712712</t>
+          <t>0010869789</t>
         </is>
       </c>
       <c r="D156" s="9" t="n">
@@ -3500,12 +3420,12 @@
       </c>
       <c r="B157" s="9" t="inlineStr">
         <is>
-          <t>No.2378</t>
+          <t>No.4337</t>
         </is>
       </c>
       <c r="C157" s="9" t="inlineStr">
         <is>
-          <t>0013678598</t>
+          <t>0010869890</t>
         </is>
       </c>
       <c r="D157" s="9" t="n">
@@ -3518,12 +3438,12 @@
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>No.2380AD</t>
+          <t>No.4409</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
         <is>
-          <t>0006838212</t>
+          <t>0001184590</t>
         </is>
       </c>
       <c r="D158" s="9" t="n">
@@ -3536,12 +3456,12 @@
       </c>
       <c r="B159" s="9" t="inlineStr">
         <is>
-          <t>No.2382</t>
+          <t>No.4413</t>
         </is>
       </c>
       <c r="C159" s="9" t="inlineStr">
         <is>
-          <t>0012999793</t>
+          <t>0001632319</t>
         </is>
       </c>
       <c r="D159" s="9" t="n">
@@ -3554,12 +3474,12 @@
       </c>
       <c r="B160" s="9" t="inlineStr">
         <is>
-          <t>No.2385</t>
+          <t>No.4421</t>
         </is>
       </c>
       <c r="C160" s="9" t="inlineStr">
         <is>
-          <t>0012969225</t>
+          <t>0004474601</t>
         </is>
       </c>
       <c r="D160" s="9" t="n">
@@ -3572,12 +3492,12 @@
       </c>
       <c r="B161" s="9" t="inlineStr">
         <is>
-          <t>No.2386</t>
+          <t>No.4490</t>
         </is>
       </c>
       <c r="C161" s="9" t="inlineStr">
         <is>
-          <t>0012969236</t>
+          <t>0002331330</t>
         </is>
       </c>
       <c r="D161" s="9" t="n">
@@ -3590,12 +3510,12 @@
       </c>
       <c r="B162" s="9" t="inlineStr">
         <is>
-          <t>No.2390AD</t>
+          <t>No.4631</t>
         </is>
       </c>
       <c r="C162" s="9" t="inlineStr">
         <is>
-          <t>0006865331</t>
+          <t>0012182250</t>
         </is>
       </c>
       <c r="D162" s="9" t="n">
@@ -3608,12 +3528,12 @@
       </c>
       <c r="B163" s="9" t="inlineStr">
         <is>
-          <t>No.2393</t>
+          <t>No.4632</t>
         </is>
       </c>
       <c r="C163" s="9" t="inlineStr">
         <is>
-          <t>0012967931</t>
+          <t>0012184708</t>
         </is>
       </c>
       <c r="D163" s="9" t="n">
@@ -3626,12 +3546,12 @@
       </c>
       <c r="B164" s="9" t="inlineStr">
         <is>
-          <t>No.2393AD</t>
+          <t>No.4657</t>
         </is>
       </c>
       <c r="C164" s="9" t="inlineStr">
         <is>
-          <t>0006755150</t>
+          <t>0012167883</t>
         </is>
       </c>
       <c r="D164" s="9" t="n">
@@ -3644,12 +3564,12 @@
       </c>
       <c r="B165" s="9" t="inlineStr">
         <is>
-          <t>No.2397</t>
+          <t>No.4664</t>
         </is>
       </c>
       <c r="C165" s="9" t="inlineStr">
         <is>
-          <t>0012967802</t>
+          <t>0012235564</t>
         </is>
       </c>
       <c r="D165" s="9" t="n">
@@ -3662,12 +3582,12 @@
       </c>
       <c r="B166" s="9" t="inlineStr">
         <is>
-          <t>No.2399AD</t>
+          <t>No.4698</t>
         </is>
       </c>
       <c r="C166" s="9" t="inlineStr">
         <is>
-          <t>0006846985</t>
+          <t>0012371547</t>
         </is>
       </c>
       <c r="D166" s="9" t="n">
@@ -3680,12 +3600,12 @@
       </c>
       <c r="B167" s="9" t="inlineStr">
         <is>
-          <t>No.2406</t>
+          <t>No.4704</t>
         </is>
       </c>
       <c r="C167" s="9" t="inlineStr">
         <is>
-          <t>0009606185</t>
+          <t>0012404983</t>
         </is>
       </c>
       <c r="D167" s="9" t="n">
@@ -3698,12 +3618,12 @@
       </c>
       <c r="B168" s="9" t="inlineStr">
         <is>
-          <t>No.2472AD</t>
+          <t>No.4811</t>
         </is>
       </c>
       <c r="C168" s="9" t="inlineStr">
         <is>
-          <t>0006825555</t>
+          <t>0012353654</t>
         </is>
       </c>
       <c r="D168" s="9" t="n">
@@ -3716,12 +3636,12 @@
       </c>
       <c r="B169" s="9" t="inlineStr">
         <is>
-          <t>No.2723</t>
+          <t>No.4812</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
         <is>
-          <t>0002835808</t>
+          <t>0012350348</t>
         </is>
       </c>
       <c r="D169" s="9" t="n">
@@ -3734,12 +3654,12 @@
       </c>
       <c r="B170" s="9" t="inlineStr">
         <is>
-          <t>No.2735</t>
+          <t>No.4822</t>
         </is>
       </c>
       <c r="C170" s="9" t="inlineStr">
         <is>
-          <t>0008222617</t>
+          <t>0012355466</t>
         </is>
       </c>
       <c r="D170" s="9" t="n">
@@ -3752,12 +3672,12 @@
       </c>
       <c r="B171" s="9" t="inlineStr">
         <is>
-          <t>No.2741AD</t>
+          <t>No.4823</t>
         </is>
       </c>
       <c r="C171" s="9" t="inlineStr">
         <is>
-          <t>0008945354</t>
+          <t>0012355679</t>
         </is>
       </c>
       <c r="D171" s="9" t="n">
@@ -3770,12 +3690,12 @@
       </c>
       <c r="B172" s="9" t="inlineStr">
         <is>
-          <t>No.2770AD</t>
+          <t>No.4825</t>
         </is>
       </c>
       <c r="C172" s="9" t="inlineStr">
         <is>
-          <t>0008127002</t>
+          <t>0012360632</t>
         </is>
       </c>
       <c r="D172" s="9" t="n">
@@ -3788,12 +3708,12 @@
       </c>
       <c r="B173" s="9" t="inlineStr">
         <is>
-          <t>No.2797</t>
+          <t>No.4826</t>
         </is>
       </c>
       <c r="C173" s="9" t="inlineStr">
         <is>
-          <t>0008456800</t>
+          <t>0012376249</t>
         </is>
       </c>
       <c r="D173" s="9" t="n">
@@ -3806,12 +3726,12 @@
       </c>
       <c r="B174" s="9" t="inlineStr">
         <is>
-          <t>No.2798</t>
+          <t>No.4827</t>
         </is>
       </c>
       <c r="C174" s="9" t="inlineStr">
         <is>
-          <t>0008456799</t>
+          <t>0012366409</t>
         </is>
       </c>
       <c r="D174" s="9" t="n">
@@ -3824,12 +3744,12 @@
       </c>
       <c r="B175" s="9" t="inlineStr">
         <is>
-          <t>No.2838</t>
+          <t>No.0002T</t>
         </is>
       </c>
       <c r="C175" s="9" t="inlineStr">
         <is>
-          <t>0002856412</t>
+          <t>0012969277</t>
         </is>
       </c>
       <c r="D175" s="9" t="n">
@@ -3842,12 +3762,12 @@
       </c>
       <c r="B176" s="9" t="inlineStr">
         <is>
-          <t>No.2839</t>
+          <t>No.0007T</t>
         </is>
       </c>
       <c r="C176" s="9" t="inlineStr">
         <is>
-          <t>0002850271</t>
+          <t>0012999805</t>
         </is>
       </c>
       <c r="D176" s="9" t="n">
@@ -3860,12 +3780,12 @@
       </c>
       <c r="B177" s="9" t="inlineStr">
         <is>
-          <t>No.2854</t>
+          <t>No.0008T</t>
         </is>
       </c>
       <c r="C177" s="9" t="inlineStr">
         <is>
-          <t>0002850562</t>
+          <t>0012999810</t>
         </is>
       </c>
       <c r="D177" s="9" t="n">
@@ -3878,12 +3798,12 @@
       </c>
       <c r="B178" s="9" t="inlineStr">
         <is>
-          <t>No.2882</t>
+          <t>No.0011T</t>
         </is>
       </c>
       <c r="C178" s="9" t="inlineStr">
         <is>
-          <t>0002837431</t>
+          <t>0012967910</t>
         </is>
       </c>
       <c r="D178" s="9" t="n">
@@ -3896,12 +3816,12 @@
       </c>
       <c r="B179" s="9" t="inlineStr">
         <is>
-          <t>No.3036AD</t>
+          <t>No.0013T</t>
         </is>
       </c>
       <c r="C179" s="9" t="inlineStr">
         <is>
-          <t>0013295609</t>
+          <t>0012967793</t>
         </is>
       </c>
       <c r="D179" s="9" t="n">
@@ -3914,12 +3834,12 @@
       </c>
       <c r="B180" s="9" t="inlineStr">
         <is>
-          <t>No.3092AD</t>
+          <t>No.0014T</t>
         </is>
       </c>
       <c r="C180" s="9" t="inlineStr">
         <is>
-          <t>0013305040</t>
+          <t>0012999741</t>
         </is>
       </c>
       <c r="D180" s="9" t="n">
@@ -3932,12 +3852,12 @@
       </c>
       <c r="B181" s="9" t="inlineStr">
         <is>
-          <t>No.3093</t>
+          <t>No.0016T</t>
         </is>
       </c>
       <c r="C181" s="9" t="inlineStr">
         <is>
-          <t>0013252244</t>
+          <t>0013000219</t>
         </is>
       </c>
       <c r="D181" s="9" t="n">
@@ -3950,12 +3870,12 @@
       </c>
       <c r="B182" s="9" t="inlineStr">
         <is>
-          <t>No.3184AD</t>
+          <t>No.0017T</t>
         </is>
       </c>
       <c r="C182" s="9" t="inlineStr">
         <is>
-          <t>0013252450</t>
+          <t>0002854018</t>
         </is>
       </c>
       <c r="D182" s="9" t="n">
@@ -3968,16 +3888,21 @@
       </c>
       <c r="B183" s="9" t="inlineStr">
         <is>
-          <t>No.3195AD</t>
+          <t>No.00183</t>
         </is>
       </c>
       <c r="C183" s="9" t="inlineStr">
         <is>
-          <t>0013282978</t>
+          <t>0012298875</t>
         </is>
       </c>
       <c r="D183" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -3986,16 +3911,21 @@
       </c>
       <c r="B184" s="9" t="inlineStr">
         <is>
-          <t>No.3238</t>
+          <t>No.00185</t>
         </is>
       </c>
       <c r="C184" s="9" t="inlineStr">
         <is>
-          <t>0013510509</t>
+          <t>0012298843</t>
         </is>
       </c>
       <c r="D184" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -4004,16 +3934,21 @@
       </c>
       <c r="B185" s="9" t="inlineStr">
         <is>
-          <t>No.3373AD</t>
+          <t>No.00186</t>
         </is>
       </c>
       <c r="C185" s="9" t="inlineStr">
         <is>
-          <t>0013632528</t>
+          <t>0012298820</t>
         </is>
       </c>
       <c r="D185" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E185" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -4022,16 +3957,21 @@
       </c>
       <c r="B186" s="9" t="inlineStr">
         <is>
-          <t>No.3375AD</t>
+          <t>No.00188</t>
         </is>
       </c>
       <c r="C186" s="9" t="inlineStr">
         <is>
-          <t>0013583503</t>
+          <t>0012298000</t>
         </is>
       </c>
       <c r="D186" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -4040,16 +3980,21 @@
       </c>
       <c r="B187" s="9" t="inlineStr">
         <is>
-          <t>No.3409</t>
+          <t>No.00189</t>
         </is>
       </c>
       <c r="C187" s="9" t="inlineStr">
         <is>
-          <t>0012167351</t>
+          <t>0012310453</t>
         </is>
       </c>
       <c r="D187" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E187" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -4058,12 +4003,12 @@
       </c>
       <c r="B188" s="9" t="inlineStr">
         <is>
-          <t>No.3442AD</t>
+          <t>No.0018T</t>
         </is>
       </c>
       <c r="C188" s="9" t="inlineStr">
         <is>
-          <t>0012249753</t>
+          <t>0012969309</t>
         </is>
       </c>
       <c r="D188" s="9" t="n">
@@ -4076,16 +4021,21 @@
       </c>
       <c r="B189" s="9" t="inlineStr">
         <is>
-          <t>No.3486AD</t>
+          <t>No.00191</t>
         </is>
       </c>
       <c r="C189" s="9" t="inlineStr">
         <is>
-          <t>0013471055</t>
+          <t>0012297904</t>
         </is>
       </c>
       <c r="D189" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E189" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -4094,16 +4044,21 @@
       </c>
       <c r="B190" s="9" t="inlineStr">
         <is>
-          <t>No.3487AD</t>
+          <t>No.00192</t>
         </is>
       </c>
       <c r="C190" s="9" t="inlineStr">
         <is>
-          <t>0013492581</t>
+          <t>0012297913</t>
         </is>
       </c>
       <c r="D190" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E190" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -4112,16 +4067,21 @@
       </c>
       <c r="B191" s="9" t="inlineStr">
         <is>
-          <t>No.3488AD</t>
+          <t>No.00193</t>
         </is>
       </c>
       <c r="C191" s="9" t="inlineStr">
         <is>
-          <t>0013183425</t>
+          <t>0012297936</t>
         </is>
       </c>
       <c r="D191" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E191" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -4130,16 +4090,21 @@
       </c>
       <c r="B192" s="9" t="inlineStr">
         <is>
-          <t>No.3492</t>
+          <t>No.00194</t>
         </is>
       </c>
       <c r="C192" s="9" t="inlineStr">
         <is>
-          <t>0013739199</t>
+          <t>0012297945</t>
         </is>
       </c>
       <c r="D192" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E192" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -4148,16 +4113,21 @@
       </c>
       <c r="B193" s="9" t="inlineStr">
         <is>
-          <t>No.3507AD</t>
+          <t>No.00196</t>
         </is>
       </c>
       <c r="C193" s="9" t="inlineStr">
         <is>
-          <t>0013716868</t>
+          <t>0012297977</t>
         </is>
       </c>
       <c r="D193" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E193" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -4166,16 +4136,21 @@
       </c>
       <c r="B194" s="9" t="inlineStr">
         <is>
-          <t>No.3518AD</t>
+          <t>No.00197</t>
         </is>
       </c>
       <c r="C194" s="9" t="inlineStr">
         <is>
-          <t>0013602422</t>
+          <t>0012310430</t>
         </is>
       </c>
       <c r="D194" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -4184,16 +4159,21 @@
       </c>
       <c r="B195" s="9" t="inlineStr">
         <is>
-          <t>No.3518AD</t>
+          <t>No.00198</t>
         </is>
       </c>
       <c r="C195" s="9" t="inlineStr">
         <is>
-          <t>0013602430</t>
+          <t>0012310421</t>
         </is>
       </c>
       <c r="D195" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E195" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -4202,16 +4182,21 @@
       </c>
       <c r="B196" s="9" t="inlineStr">
         <is>
-          <t>No.3525AD</t>
+          <t>No.00199</t>
         </is>
       </c>
       <c r="C196" s="9" t="inlineStr">
         <is>
-          <t>0013727332</t>
+          <t>0012310397</t>
         </is>
       </c>
       <c r="D196" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -4220,12 +4205,12 @@
       </c>
       <c r="B197" s="9" t="inlineStr">
         <is>
-          <t>No.3578</t>
+          <t>No.0019T</t>
         </is>
       </c>
       <c r="C197" s="9" t="inlineStr">
         <is>
-          <t>0012143967</t>
+          <t>0012967940</t>
         </is>
       </c>
       <c r="D197" s="9" t="n">
@@ -4238,16 +4223,21 @@
       </c>
       <c r="B198" s="9" t="inlineStr">
         <is>
-          <t>No.3585AD</t>
+          <t>No.00200</t>
         </is>
       </c>
       <c r="C198" s="9" t="inlineStr">
         <is>
-          <t>0012116284</t>
+          <t>0012310388</t>
         </is>
       </c>
       <c r="D198" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -4256,16 +4246,21 @@
       </c>
       <c r="B199" s="9" t="inlineStr">
         <is>
-          <t>No.3604AD</t>
+          <t>No.00201</t>
         </is>
       </c>
       <c r="C199" s="9" t="inlineStr">
         <is>
-          <t>0012264086</t>
+          <t>0012310365</t>
         </is>
       </c>
       <c r="D199" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E199" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -4274,16 +4269,21 @@
       </c>
       <c r="B200" s="9" t="inlineStr">
         <is>
-          <t>No.3605</t>
+          <t>No.00203</t>
         </is>
       </c>
       <c r="C200" s="9" t="inlineStr">
         <is>
-          <t>0012408824</t>
+          <t>0012310333</t>
         </is>
       </c>
       <c r="D200" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="B201" s="9" t="inlineStr">
         <is>
-          <t>No.3609AD</t>
+          <t>No.0041T</t>
         </is>
       </c>
       <c r="C201" s="9" t="inlineStr">
         <is>
-          <t>0012224065</t>
+          <t>0012999556</t>
         </is>
       </c>
       <c r="D201" s="9" t="n">
@@ -4310,12 +4310,12 @@
       </c>
       <c r="B202" s="9" t="inlineStr">
         <is>
-          <t>No.3639</t>
+          <t>No.0042T</t>
         </is>
       </c>
       <c r="C202" s="9" t="inlineStr">
         <is>
-          <t>0012197515</t>
+          <t>0012999743</t>
         </is>
       </c>
       <c r="D202" s="9" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="B203" s="9" t="inlineStr">
         <is>
-          <t>No.3661</t>
+          <t>No.0043T</t>
         </is>
       </c>
       <c r="C203" s="9" t="inlineStr">
         <is>
-          <t>0012427235</t>
+          <t>0012999808</t>
         </is>
       </c>
       <c r="D203" s="9" t="n">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="B204" s="9" t="inlineStr">
         <is>
-          <t>No.3661AD</t>
+          <t>No.0044T</t>
         </is>
       </c>
       <c r="C204" s="9" t="inlineStr">
         <is>
-          <t>0012427243</t>
+          <t>0013000221</t>
         </is>
       </c>
       <c r="D204" s="9" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B205" s="9" t="inlineStr">
         <is>
-          <t>No.3771AD</t>
+          <t>No.0046T</t>
         </is>
       </c>
       <c r="C205" s="9" t="inlineStr">
         <is>
-          <t>0008206055</t>
+          <t>0013000092</t>
         </is>
       </c>
       <c r="D205" s="9" t="n">
@@ -4382,12 +4382,12 @@
       </c>
       <c r="B206" s="9" t="inlineStr">
         <is>
-          <t>No.3784AD</t>
+          <t>No.0049T</t>
         </is>
       </c>
       <c r="C206" s="9" t="inlineStr">
         <is>
-          <t>0008299056</t>
+          <t>0012567928</t>
         </is>
       </c>
       <c r="D206" s="9" t="n">
@@ -4400,12 +4400,12 @@
       </c>
       <c r="B207" s="9" t="inlineStr">
         <is>
-          <t>No.3790AD</t>
+          <t>No.0050T</t>
         </is>
       </c>
       <c r="C207" s="9" t="inlineStr">
         <is>
-          <t>0008187907</t>
+          <t>0012567915</t>
         </is>
       </c>
       <c r="D207" s="9" t="n">
@@ -4418,12 +4418,12 @@
       </c>
       <c r="B208" s="9" t="inlineStr">
         <is>
-          <t>No.3792</t>
+          <t>No.0421AD</t>
         </is>
       </c>
       <c r="C208" s="9" t="inlineStr">
         <is>
-          <t>0008120294</t>
+          <t>0014109981</t>
         </is>
       </c>
       <c r="D208" s="9" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B209" s="9" t="inlineStr">
         <is>
-          <t>No.3812AD</t>
+          <t>No.2377AD</t>
         </is>
       </c>
       <c r="C209" s="9" t="inlineStr">
         <is>
-          <t>0008360452</t>
+          <t>0000712712</t>
         </is>
       </c>
       <c r="D209" s="9" t="n">
@@ -4454,12 +4454,12 @@
       </c>
       <c r="B210" s="9" t="inlineStr">
         <is>
-          <t>No.3840</t>
+          <t>No.2380AD</t>
         </is>
       </c>
       <c r="C210" s="9" t="inlineStr">
         <is>
-          <t>0008185604</t>
+          <t>0006838212</t>
         </is>
       </c>
       <c r="D210" s="9" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="B211" s="9" t="inlineStr">
         <is>
-          <t>No.3880</t>
+          <t>No.2390AD</t>
         </is>
       </c>
       <c r="C211" s="9" t="inlineStr">
         <is>
-          <t>0008018196</t>
+          <t>0006865331</t>
         </is>
       </c>
       <c r="D211" s="9" t="n">
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B212" s="9" t="inlineStr">
         <is>
-          <t>No.3908</t>
+          <t>No.2393AD</t>
         </is>
       </c>
       <c r="C212" s="9" t="inlineStr">
         <is>
-          <t>0007959211</t>
+          <t>0006755150</t>
         </is>
       </c>
       <c r="D212" s="9" t="n">
@@ -4508,12 +4508,12 @@
       </c>
       <c r="B213" s="9" t="inlineStr">
         <is>
-          <t>No.3917</t>
+          <t>No.2399AD</t>
         </is>
       </c>
       <c r="C213" s="9" t="inlineStr">
         <is>
-          <t>0008224823</t>
+          <t>0006846985</t>
         </is>
       </c>
       <c r="D213" s="9" t="n">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="B214" s="9" t="inlineStr">
         <is>
-          <t>No.4194</t>
+          <t>No.2472AD</t>
         </is>
       </c>
       <c r="C214" s="9" t="inlineStr">
         <is>
-          <t>0010843040</t>
+          <t>0006825555</t>
         </is>
       </c>
       <c r="D214" s="9" t="n">
@@ -4544,12 +4544,12 @@
       </c>
       <c r="B215" s="9" t="inlineStr">
         <is>
-          <t>No.4214</t>
+          <t>No.2741AD</t>
         </is>
       </c>
       <c r="C215" s="9" t="inlineStr">
         <is>
-          <t>0010900768</t>
+          <t>0008945354</t>
         </is>
       </c>
       <c r="D215" s="9" t="n">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="B216" s="9" t="inlineStr">
         <is>
-          <t>No.4215</t>
+          <t>No.2770AD</t>
         </is>
       </c>
       <c r="C216" s="9" t="inlineStr">
         <is>
-          <t>0010900771</t>
+          <t>0008127002</t>
         </is>
       </c>
       <c r="D216" s="9" t="n">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="B217" s="9" t="inlineStr">
         <is>
-          <t>No.4301</t>
+          <t>No.3036AD</t>
         </is>
       </c>
       <c r="C217" s="9" t="inlineStr">
         <is>
-          <t>0010864791</t>
+          <t>0013295609</t>
         </is>
       </c>
       <c r="D217" s="9" t="n">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="B218" s="9" t="inlineStr">
         <is>
-          <t>No.4316</t>
+          <t>No.3092AD</t>
         </is>
       </c>
       <c r="C218" s="9" t="inlineStr">
         <is>
-          <t>0003787975</t>
+          <t>0013305040</t>
         </is>
       </c>
       <c r="D218" s="9" t="n">
@@ -4616,12 +4616,12 @@
       </c>
       <c r="B219" s="9" t="inlineStr">
         <is>
-          <t>No.4331</t>
+          <t>No.3184AD</t>
         </is>
       </c>
       <c r="C219" s="9" t="inlineStr">
         <is>
-          <t>0010869833</t>
+          <t>0013252450</t>
         </is>
       </c>
       <c r="D219" s="9" t="n">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B220" s="9" t="inlineStr">
         <is>
-          <t>No.4335</t>
+          <t>No.3195AD</t>
         </is>
       </c>
       <c r="C220" s="9" t="inlineStr">
         <is>
-          <t>0010869789</t>
+          <t>0013282978</t>
         </is>
       </c>
       <c r="D220" s="9" t="n">
@@ -4652,12 +4652,12 @@
       </c>
       <c r="B221" s="9" t="inlineStr">
         <is>
-          <t>No.4337</t>
+          <t>No.3373AD</t>
         </is>
       </c>
       <c r="C221" s="9" t="inlineStr">
         <is>
-          <t>0010869890</t>
+          <t>0013632528</t>
         </is>
       </c>
       <c r="D221" s="9" t="n">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="B222" s="9" t="inlineStr">
         <is>
-          <t>No.4409</t>
+          <t>No.3375AD</t>
         </is>
       </c>
       <c r="C222" s="9" t="inlineStr">
         <is>
-          <t>0001184590</t>
+          <t>0013583503</t>
         </is>
       </c>
       <c r="D222" s="9" t="n">
@@ -4688,12 +4688,12 @@
       </c>
       <c r="B223" s="9" t="inlineStr">
         <is>
-          <t>No.4413</t>
+          <t>No.3442AD</t>
         </is>
       </c>
       <c r="C223" s="9" t="inlineStr">
         <is>
-          <t>0001632319</t>
+          <t>0012249753</t>
         </is>
       </c>
       <c r="D223" s="9" t="n">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="B224" s="9" t="inlineStr">
         <is>
-          <t>No.4421</t>
+          <t>No.3486AD</t>
         </is>
       </c>
       <c r="C224" s="9" t="inlineStr">
         <is>
-          <t>0004474601</t>
+          <t>0013471055</t>
         </is>
       </c>
       <c r="D224" s="9" t="n">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="B225" s="9" t="inlineStr">
         <is>
-          <t>No.4490</t>
+          <t>No.3487AD</t>
         </is>
       </c>
       <c r="C225" s="9" t="inlineStr">
         <is>
-          <t>0002331330</t>
+          <t>0013492581</t>
         </is>
       </c>
       <c r="D225" s="9" t="n">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B226" s="9" t="inlineStr">
         <is>
-          <t>No.4631</t>
+          <t>No.3488AD</t>
         </is>
       </c>
       <c r="C226" s="9" t="inlineStr">
         <is>
-          <t>0012182250</t>
+          <t>0013183425</t>
         </is>
       </c>
       <c r="D226" s="9" t="n">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B227" s="9" t="inlineStr">
         <is>
-          <t>No.4632</t>
+          <t>No.3507AD</t>
         </is>
       </c>
       <c r="C227" s="9" t="inlineStr">
         <is>
-          <t>0012184708</t>
+          <t>0013716868</t>
         </is>
       </c>
       <c r="D227" s="9" t="n">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="B228" s="9" t="inlineStr">
         <is>
-          <t>No.4657</t>
+          <t>No.3518AD</t>
         </is>
       </c>
       <c r="C228" s="9" t="inlineStr">
         <is>
-          <t>0012167883</t>
+          <t>0013602422</t>
         </is>
       </c>
       <c r="D228" s="9" t="n">
@@ -4796,12 +4796,12 @@
       </c>
       <c r="B229" s="9" t="inlineStr">
         <is>
-          <t>No.4664</t>
+          <t>No.3518AD</t>
         </is>
       </c>
       <c r="C229" s="9" t="inlineStr">
         <is>
-          <t>0012235564</t>
+          <t>0013602430</t>
         </is>
       </c>
       <c r="D229" s="9" t="n">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="B230" s="9" t="inlineStr">
         <is>
-          <t>No.4698</t>
+          <t>No.3525AD</t>
         </is>
       </c>
       <c r="C230" s="9" t="inlineStr">
         <is>
-          <t>0012371547</t>
+          <t>0013727332</t>
         </is>
       </c>
       <c r="D230" s="9" t="n">
@@ -4832,12 +4832,12 @@
       </c>
       <c r="B231" s="9" t="inlineStr">
         <is>
-          <t>No.4704</t>
+          <t>No.3585AD</t>
         </is>
       </c>
       <c r="C231" s="9" t="inlineStr">
         <is>
-          <t>0012404983</t>
+          <t>0012116284</t>
         </is>
       </c>
       <c r="D231" s="9" t="n">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="B232" s="9" t="inlineStr">
         <is>
-          <t>No.4811</t>
+          <t>No.3604AD</t>
         </is>
       </c>
       <c r="C232" s="9" t="inlineStr">
         <is>
-          <t>0012353654</t>
+          <t>0012264086</t>
         </is>
       </c>
       <c r="D232" s="9" t="n">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="B233" s="9" t="inlineStr">
         <is>
-          <t>No.4812</t>
+          <t>No.3609AD</t>
         </is>
       </c>
       <c r="C233" s="9" t="inlineStr">
         <is>
-          <t>0012350348</t>
+          <t>0012224065</t>
         </is>
       </c>
       <c r="D233" s="9" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="B234" s="9" t="inlineStr">
         <is>
-          <t>No.4822</t>
+          <t>No.3661AD</t>
         </is>
       </c>
       <c r="C234" s="9" t="inlineStr">
         <is>
-          <t>0012355466</t>
+          <t>0012427243</t>
         </is>
       </c>
       <c r="D234" s="9" t="n">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="B235" s="9" t="inlineStr">
         <is>
-          <t>No.4823</t>
+          <t>No.3771AD</t>
         </is>
       </c>
       <c r="C235" s="9" t="inlineStr">
         <is>
-          <t>0012355679</t>
+          <t>0008206055</t>
         </is>
       </c>
       <c r="D235" s="9" t="n">
@@ -4922,12 +4922,12 @@
       </c>
       <c r="B236" s="9" t="inlineStr">
         <is>
-          <t>No.4825</t>
+          <t>No.3784AD</t>
         </is>
       </c>
       <c r="C236" s="9" t="inlineStr">
         <is>
-          <t>0012360632</t>
+          <t>0008299056</t>
         </is>
       </c>
       <c r="D236" s="9" t="n">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="B237" s="9" t="inlineStr">
         <is>
-          <t>No.4826</t>
+          <t>No.3790AD</t>
         </is>
       </c>
       <c r="C237" s="9" t="inlineStr">
         <is>
-          <t>0012376249</t>
+          <t>0008187907</t>
         </is>
       </c>
       <c r="D237" s="9" t="n">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="B238" s="9" t="inlineStr">
         <is>
-          <t>No.4827</t>
+          <t>No.3812AD</t>
         </is>
       </c>
       <c r="C238" s="9" t="inlineStr">
         <is>
-          <t>0012366409</t>
+          <t>0008360452</t>
         </is>
       </c>
       <c r="D238" s="9" t="n">
